--- a/Data/Stock.xlsx
+++ b/Data/Stock.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 3\Project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Smart_grocery_lister\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B7C6B9-0401-44D0-88B0-FADB777D6CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF69B69-D184-4253-AA52-F5C10B906869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{D41E23D7-072E-4B96-8411-C15E2F0FB0FB}"/>
   </bookViews>
@@ -480,10 +480,13 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="40.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -534,7 +537,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
